--- a/windows-cmd-reference.xlsx
+++ b/windows-cmd-reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="14190" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="14190" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="190">
   <si>
     <t>thomas-krenn.com</t>
   </si>
@@ -465,6 +465,135 @@
   </si>
   <si>
     <t>Sources:</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>**Containment, In, and Is Operators always return Boolean</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>not equal</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>greater than or equal</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>less than or equal</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>True when string matches</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>True when string does not match</t>
+  </si>
+  <si>
+    <t>notlike</t>
+  </si>
+  <si>
+    <t>True when string mathces regex</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>True when string does not match regex</t>
+  </si>
+  <si>
+    <t>notmatch</t>
+  </si>
+  <si>
+    <t>True if value is in collection</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>True if value not in collection</t>
+  </si>
+  <si>
+    <t>notcontains</t>
+  </si>
+  <si>
+    <t>True if value in collection</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>True when value not in collection</t>
+  </si>
+  <si>
+    <t>notin</t>
+  </si>
+  <si>
+    <t>Replaces a string pattern</t>
+  </si>
+  <si>
+    <t>True if both objects are the same type</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>True if objects are not the same type</t>
+  </si>
+  <si>
+    <t>isnot</t>
+  </si>
+  <si>
+    <t>Make Case sensitive</t>
+  </si>
+  <si>
+    <t>c (i.e. ceq)</t>
+  </si>
+  <si>
+    <t>Make Case insentive (default)</t>
+  </si>
+  <si>
+    <t>I (i.e. ieq)</t>
+  </si>
+  <si>
+    <t>Comparison Operators</t>
   </si>
 </sst>
 </file>
@@ -523,13 +652,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,6 +663,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,9 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:B48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -844,674 +985,799 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="I25" s="4"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G3:H3"/>

--- a/windows-cmd-reference.xlsx
+++ b/windows-cmd-reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="14190" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="14190" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="190">
-  <si>
-    <t>thomas-krenn.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>call</t>
   </si>
@@ -470,130 +467,73 @@
     <t>and</t>
   </si>
   <si>
-    <t>&amp;&amp;</t>
-  </si>
-  <si>
     <t>or</t>
   </si>
   <si>
-    <t>||</t>
-  </si>
-  <si>
-    <t>**Containment, In, and Is Operators always return Boolean</t>
-  </si>
-  <si>
     <t>equal</t>
   </si>
   <si>
-    <t>eq</t>
-  </si>
-  <si>
     <t>not equal</t>
   </si>
   <si>
-    <t>ne</t>
-  </si>
-  <si>
     <t>greater than</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>greater than or equal</t>
   </si>
   <si>
-    <t>ge</t>
-  </si>
-  <si>
     <t>less than</t>
   </si>
   <si>
-    <t>lt</t>
-  </si>
-  <si>
     <t>less than or equal</t>
   </si>
   <si>
-    <t>le</t>
-  </si>
-  <si>
-    <t>True when string matches</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>True when string does not match</t>
-  </si>
-  <si>
-    <t>notlike</t>
-  </si>
-  <si>
-    <t>True when string mathces regex</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>True when string does not match regex</t>
-  </si>
-  <si>
-    <t>notmatch</t>
-  </si>
-  <si>
-    <t>True if value is in collection</t>
-  </si>
-  <si>
-    <t>contains</t>
-  </si>
-  <si>
-    <t>True if value not in collection</t>
-  </si>
-  <si>
-    <t>notcontains</t>
-  </si>
-  <si>
-    <t>True if value in collection</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>True when value not in collection</t>
-  </si>
-  <si>
-    <t>notin</t>
-  </si>
-  <si>
-    <t>Replaces a string pattern</t>
-  </si>
-  <si>
-    <t>True if both objects are the same type</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>True if objects are not the same type</t>
-  </si>
-  <si>
-    <t>isnot</t>
-  </si>
-  <si>
-    <t>Make Case sensitive</t>
-  </si>
-  <si>
-    <t>c (i.e. ceq)</t>
-  </si>
-  <si>
-    <t>Make Case insentive (default)</t>
-  </si>
-  <si>
-    <t>I (i.e. ieq)</t>
-  </si>
-  <si>
     <t>Comparison Operators</t>
+  </si>
+  <si>
+    <t>&amp;&amp; / AND</t>
+  </si>
+  <si>
+    <t>|| / OR</t>
+  </si>
+  <si>
+    <t>neq</t>
+  </si>
+  <si>
+    <t>equ</t>
+  </si>
+  <si>
+    <t>gtr</t>
+  </si>
+  <si>
+    <t>geq</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>leq</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Seperateds commands on a line</t>
+  </si>
+  <si>
+    <t>out of of one command into the input of another command</t>
+  </si>
+  <si>
+    <t>thomas-krenn.com, https://stackoverflow.com/questions/28889954/what-does-in-this-batch-file</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>not / !</t>
   </si>
 </sst>
 </file>
@@ -663,17 +603,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,434 +916,434 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" s="4"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" s="4"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="4"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="4"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" s="4"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="4"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" s="4"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="4"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="4"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="4"/>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="4"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="4"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I16" s="4"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" s="4"/>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" s="4"/>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="4"/>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I20" s="4"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I21" s="4"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" s="4"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" s="4"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="4"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I25" s="4"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1419,134 +1357,142 @@
       <c r="B27" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="6"/>
+      <c r="A33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="D33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="D40" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="D41" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1554,10 +1500,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1565,10 +1511,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1596,183 +1542,84 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="9"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B51" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B52" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B53" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="B54" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B55" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
